--- a/dash_app/data/data_for_main_table.xlsx
+++ b/dash_app/data/data_for_main_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citco\Documents\Projects\Platt&amp;Reilly\Projects\dashboard\src\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citco\Documents\Projects\Platt&amp;Reilly\Projects\dashboard\dash_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5491BA48-19F6-4CBC-A191-B24BB06F1F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE9E9A-DFA5-47E9-94CE-8A6CBB7B2B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24750" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{7D4D2C26-5603-43D3-8ABB-FFEB205B5079}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D4D2C26-5603-43D3-8ABB-FFEB205B5079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Project Name</t>
   </si>
@@ -92,97 +92,7 @@
     <t>KINGS KROSS</t>
   </si>
   <si>
-    <t>Apr 23 - Apr 24 (53)</t>
-  </si>
-  <si>
-    <t>2 430 K</t>
-  </si>
-  <si>
-    <t>12 430 K</t>
-  </si>
-  <si>
-    <t>8 500 K</t>
-  </si>
-  <si>
-    <t>2 850 K</t>
-  </si>
-  <si>
-    <t>8 850 K</t>
-  </si>
-  <si>
-    <t>6 800 K</t>
-  </si>
-  <si>
-    <t>570 K</t>
-  </si>
-  <si>
-    <t>1 570 K</t>
-  </si>
-  <si>
-    <t>1 205 K</t>
-  </si>
-  <si>
-    <t>280 K</t>
-  </si>
-  <si>
-    <t>1 400 K</t>
-  </si>
-  <si>
-    <t>985 K</t>
-  </si>
-  <si>
-    <t>530 K</t>
-  </si>
-  <si>
-    <t>1 380 K</t>
-  </si>
-  <si>
-    <t>1 100 K</t>
-  </si>
-  <si>
-    <t>250 K</t>
-  </si>
-  <si>
-    <t>1 250 K</t>
-  </si>
-  <si>
-    <t>900 K</t>
-  </si>
-  <si>
-    <t>550 K</t>
-  </si>
-  <si>
-    <t>1 420 K</t>
-  </si>
-  <si>
-    <t>1 050 K</t>
-  </si>
-  <si>
-    <t>245 K</t>
-  </si>
-  <si>
-    <t>1 234 K</t>
-  </si>
-  <si>
-    <t>905 K</t>
-  </si>
-  <si>
-    <t>2 000 K</t>
-  </si>
-  <si>
-    <t>6 000 K</t>
-  </si>
-  <si>
-    <t>3 000 K</t>
-  </si>
-  <si>
-    <t>4 000 K</t>
-  </si>
-  <si>
-    <t>5 000 K</t>
-  </si>
-  <si>
-    <t>7 000 K</t>
+    <t>Apr 23-Apr 24 (53)</t>
   </si>
 </sst>
 </file>
@@ -569,7 +479,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,29 +539,29 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
+      <c r="D2">
+        <v>2430</v>
+      </c>
+      <c r="E2">
+        <v>570</v>
+      </c>
+      <c r="F2">
+        <v>530</v>
+      </c>
+      <c r="G2">
+        <v>550</v>
+      </c>
+      <c r="H2">
+        <v>2000</v>
+      </c>
+      <c r="I2">
+        <v>2000</v>
+      </c>
+      <c r="J2">
+        <v>2000</v>
+      </c>
+      <c r="K2">
+        <v>2000</v>
       </c>
       <c r="L2">
         <v>19</v>
@@ -667,29 +577,29 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" t="s">
-        <v>45</v>
+      <c r="D3">
+        <v>12430</v>
+      </c>
+      <c r="E3">
+        <v>1570</v>
+      </c>
+      <c r="F3">
+        <v>1380</v>
+      </c>
+      <c r="G3">
+        <v>1420</v>
+      </c>
+      <c r="H3">
+        <v>3000</v>
+      </c>
+      <c r="I3">
+        <v>3000</v>
+      </c>
+      <c r="J3">
+        <v>3000</v>
+      </c>
+      <c r="K3">
+        <v>3000</v>
       </c>
       <c r="L3">
         <v>20</v>
@@ -705,29 +615,29 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
+      <c r="D4">
+        <v>8500</v>
+      </c>
+      <c r="E4">
+        <v>1205</v>
+      </c>
+      <c r="F4">
+        <v>1100</v>
+      </c>
+      <c r="G4">
+        <v>1050</v>
+      </c>
+      <c r="H4">
+        <v>4000</v>
+      </c>
+      <c r="I4">
+        <v>4000</v>
+      </c>
+      <c r="J4">
+        <v>4000</v>
+      </c>
+      <c r="K4">
+        <v>4000</v>
       </c>
       <c r="L4">
         <v>21</v>
@@ -743,29 +653,29 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>47</v>
+      <c r="D5">
+        <v>2850</v>
+      </c>
+      <c r="E5">
+        <v>280</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+      <c r="G5">
+        <v>245</v>
+      </c>
+      <c r="H5">
+        <v>5000</v>
+      </c>
+      <c r="I5">
+        <v>5000</v>
+      </c>
+      <c r="J5">
+        <v>5000</v>
+      </c>
+      <c r="K5">
+        <v>5000</v>
       </c>
       <c r="L5">
         <v>22</v>
@@ -781,29 +691,29 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
+      <c r="D6">
+        <v>8850</v>
+      </c>
+      <c r="E6">
+        <v>1400</v>
+      </c>
+      <c r="F6">
+        <v>1250</v>
+      </c>
+      <c r="G6">
+        <v>1234</v>
+      </c>
+      <c r="H6">
+        <v>6000</v>
+      </c>
+      <c r="I6">
+        <v>6000</v>
+      </c>
+      <c r="J6">
+        <v>6000</v>
+      </c>
+      <c r="K6">
+        <v>6000</v>
       </c>
       <c r="L6">
         <v>23</v>
@@ -819,29 +729,29 @@
       <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>48</v>
+      <c r="D7">
+        <v>6800</v>
+      </c>
+      <c r="E7">
+        <v>985</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+      <c r="G7">
+        <v>905</v>
+      </c>
+      <c r="H7">
+        <v>7000</v>
+      </c>
+      <c r="I7">
+        <v>7000</v>
+      </c>
+      <c r="J7">
+        <v>7000</v>
+      </c>
+      <c r="K7">
+        <v>7000</v>
       </c>
       <c r="L7">
         <v>24</v>

--- a/dash_app/data/data_for_main_table.xlsx
+++ b/dash_app/data/data_for_main_table.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citco\Documents\Projects\Platt&amp;Reilly\Projects\dashboard\dash_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE9E9A-DFA5-47E9-94CE-8A6CBB7B2B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1073218D-55CB-4FC5-8730-EA37C1B90859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D4D2C26-5603-43D3-8ABB-FFEB205B5079}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D4D2C26-5603-43D3-8ABB-FFEB205B5079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LastStatePerProject_VIEW" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="21">
   <si>
     <t>Project Name</t>
   </si>
@@ -94,6 +95,12 @@
   <si>
     <t>Apr 23-Apr 24 (53)</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Jul 23-Jul 24 (53)</t>
+  </si>
 </sst>
 </file>
 
@@ -114,12 +121,60 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,14 +189,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,284 +545,1660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDFD5C8-39F4-4F7C-9FBC-09F5FAA7CC4B}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="5">
         <v>85</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5">
         <v>2430</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="5">
         <v>570</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="5">
         <v>530</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="5">
         <v>550</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="5">
         <v>2000</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="5">
         <v>2000</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="5">
         <v>2000</v>
       </c>
-      <c r="K2">
+      <c r="L2" s="5">
         <v>2000</v>
       </c>
-      <c r="L2">
+      <c r="M2" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2850</v>
+      </c>
+      <c r="F3" s="5">
+        <v>280</v>
+      </c>
+      <c r="G3" s="5">
+        <v>250</v>
+      </c>
+      <c r="H3" s="5">
+        <v>245</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="L3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="M3" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>8850</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1400</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1250</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1234</v>
+      </c>
+      <c r="I4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="J4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="K4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="L4" s="5">
+        <v>6000</v>
+      </c>
+      <c r="M4" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5">
+        <v>92</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
+        <v>6800</v>
+      </c>
+      <c r="F5" s="5">
+        <v>985</v>
+      </c>
+      <c r="G5" s="5">
+        <v>900</v>
+      </c>
+      <c r="H5" s="5">
+        <v>905</v>
+      </c>
+      <c r="I5" s="5">
+        <v>7000</v>
+      </c>
+      <c r="J5" s="5">
+        <v>7000</v>
+      </c>
+      <c r="K5" s="5">
+        <v>7000</v>
+      </c>
+      <c r="L5" s="5">
+        <v>7000</v>
+      </c>
+      <c r="M5" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
+        <v>88</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2680</v>
+      </c>
+      <c r="F6" s="3">
+        <v>650</v>
+      </c>
+      <c r="G6" s="3">
+        <v>600</v>
+      </c>
+      <c r="H6" s="3">
+        <v>590</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2050</v>
+      </c>
+      <c r="M6" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1205</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1050</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M7" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3">
+        <v>55</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2850</v>
+      </c>
+      <c r="F8" s="3">
+        <v>280</v>
+      </c>
+      <c r="G8" s="3">
+        <v>250</v>
+      </c>
+      <c r="H8" s="3">
+        <v>245</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M8" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3">
+        <v>8850</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1250</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1234</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3">
+        <v>92</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>985</v>
+      </c>
+      <c r="G10" s="3">
+        <v>900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>905</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>45352</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="8">
+        <v>91</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2680</v>
+      </c>
+      <c r="F11" s="8">
+        <v>650</v>
+      </c>
+      <c r="G11" s="8">
+        <v>600</v>
+      </c>
+      <c r="H11" s="8">
+        <v>590</v>
+      </c>
+      <c r="I11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="J11" s="8">
+        <v>2100</v>
+      </c>
+      <c r="K11" s="8">
+        <v>2000</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2050</v>
+      </c>
+      <c r="M11" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>45352</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="C12" s="8">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8">
         <v>12430</v>
       </c>
-      <c r="E3">
+      <c r="F12" s="8">
         <v>1570</v>
       </c>
-      <c r="F3">
+      <c r="G12" s="8">
         <v>1380</v>
       </c>
-      <c r="G3">
+      <c r="H12" s="8">
         <v>1420</v>
       </c>
-      <c r="H3">
+      <c r="I12" s="8">
         <v>3000</v>
       </c>
-      <c r="I3">
+      <c r="J12" s="8">
         <v>3000</v>
       </c>
-      <c r="J3">
+      <c r="K12" s="8">
         <v>3000</v>
       </c>
-      <c r="K3">
+      <c r="L12" s="8">
         <v>3000</v>
       </c>
-      <c r="L3">
+      <c r="M12" s="8">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>45352</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="C13" s="8">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
+      <c r="D13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="8">
         <v>8500</v>
       </c>
-      <c r="E4">
+      <c r="F13" s="8">
         <v>1205</v>
       </c>
-      <c r="F4">
+      <c r="G13" s="8">
         <v>1100</v>
       </c>
-      <c r="G4">
+      <c r="H13" s="8">
         <v>1050</v>
       </c>
-      <c r="H4">
-        <v>4000</v>
-      </c>
-      <c r="I4">
-        <v>4000</v>
-      </c>
-      <c r="J4">
-        <v>4000</v>
-      </c>
-      <c r="K4">
-        <v>4000</v>
-      </c>
-      <c r="L4">
+      <c r="I13" s="8">
+        <v>4000</v>
+      </c>
+      <c r="J13" s="8">
+        <v>4000</v>
+      </c>
+      <c r="K13" s="8">
+        <v>4000</v>
+      </c>
+      <c r="L13" s="8">
+        <v>4000</v>
+      </c>
+      <c r="M13" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>45352</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="C14" s="8">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+      <c r="D14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8">
         <v>2850</v>
       </c>
-      <c r="E5">
+      <c r="F14" s="8">
         <v>280</v>
       </c>
-      <c r="F5">
+      <c r="G14" s="8">
         <v>250</v>
       </c>
-      <c r="G5">
+      <c r="H14" s="8">
         <v>245</v>
       </c>
-      <c r="H5">
-        <v>5000</v>
-      </c>
-      <c r="I5">
-        <v>5000</v>
-      </c>
-      <c r="J5">
-        <v>5000</v>
-      </c>
-      <c r="K5">
-        <v>5000</v>
-      </c>
-      <c r="L5">
+      <c r="I14" s="8">
+        <v>5000</v>
+      </c>
+      <c r="J14" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K14" s="8">
+        <v>5000</v>
+      </c>
+      <c r="L14" s="8">
+        <v>5000</v>
+      </c>
+      <c r="M14" s="8">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>45352</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="C15" s="8">
         <v>55</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8">
         <v>8850</v>
       </c>
-      <c r="E6">
+      <c r="F15" s="8">
         <v>1400</v>
       </c>
-      <c r="F6">
+      <c r="G15" s="8">
         <v>1250</v>
       </c>
-      <c r="G6">
+      <c r="H15" s="8">
         <v>1234</v>
       </c>
-      <c r="H6">
-        <v>6000</v>
-      </c>
-      <c r="I6">
-        <v>6000</v>
-      </c>
-      <c r="J6">
-        <v>6000</v>
-      </c>
-      <c r="K6">
-        <v>6000</v>
-      </c>
-      <c r="L6">
+      <c r="I15" s="8">
+        <v>6000</v>
+      </c>
+      <c r="J15" s="8">
+        <v>6000</v>
+      </c>
+      <c r="K15" s="8">
+        <v>6000</v>
+      </c>
+      <c r="L15" s="8">
+        <v>6000</v>
+      </c>
+      <c r="M15" s="8">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>45352</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="C16" s="8">
         <v>92</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8">
         <v>6800</v>
       </c>
-      <c r="E7">
+      <c r="F16" s="8">
         <v>985</v>
       </c>
-      <c r="F7">
+      <c r="G16" s="8">
         <v>900</v>
       </c>
-      <c r="G7">
+      <c r="H16" s="8">
         <v>905</v>
       </c>
-      <c r="H7">
-        <v>7000</v>
-      </c>
-      <c r="I7">
-        <v>7000</v>
-      </c>
-      <c r="J7">
-        <v>7000</v>
-      </c>
-      <c r="K7">
-        <v>7000</v>
-      </c>
-      <c r="L7">
+      <c r="I16" s="8">
+        <v>7000</v>
+      </c>
+      <c r="J16" s="8">
+        <v>7000</v>
+      </c>
+      <c r="K16" s="8">
+        <v>7000</v>
+      </c>
+      <c r="L16" s="8">
+        <v>7000</v>
+      </c>
+      <c r="M16" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45383</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="10">
+        <v>92</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2680</v>
+      </c>
+      <c r="F17" s="10">
+        <v>650</v>
+      </c>
+      <c r="G17" s="10">
+        <v>600</v>
+      </c>
+      <c r="H17" s="10">
+        <v>590</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1500</v>
+      </c>
+      <c r="J17" s="10">
+        <v>2150</v>
+      </c>
+      <c r="K17" s="10">
+        <v>2150</v>
+      </c>
+      <c r="L17" s="10">
+        <v>2050</v>
+      </c>
+      <c r="M17" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45383</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10">
+        <v>35</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="10">
+        <v>12430</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1570</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1380</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1420</v>
+      </c>
+      <c r="I18" s="10">
+        <v>3000</v>
+      </c>
+      <c r="J18" s="10">
+        <v>3000</v>
+      </c>
+      <c r="K18" s="10">
+        <v>3000</v>
+      </c>
+      <c r="L18" s="10">
+        <v>3000</v>
+      </c>
+      <c r="M18" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>45383</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="10">
+        <v>25</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="10">
+        <v>8500</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1205</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1100</v>
+      </c>
+      <c r="H19" s="10">
+        <v>1050</v>
+      </c>
+      <c r="I19" s="10">
+        <v>4000</v>
+      </c>
+      <c r="J19" s="10">
+        <v>4000</v>
+      </c>
+      <c r="K19" s="10">
+        <v>4000</v>
+      </c>
+      <c r="L19" s="10">
+        <v>4000</v>
+      </c>
+      <c r="M19" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45383</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10">
+        <v>55</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2850</v>
+      </c>
+      <c r="F20" s="10">
+        <v>280</v>
+      </c>
+      <c r="G20" s="10">
+        <v>250</v>
+      </c>
+      <c r="H20" s="10">
+        <v>245</v>
+      </c>
+      <c r="I20" s="10">
+        <v>5000</v>
+      </c>
+      <c r="J20" s="10">
+        <v>5000</v>
+      </c>
+      <c r="K20" s="10">
+        <v>5000</v>
+      </c>
+      <c r="L20" s="10">
+        <v>5000</v>
+      </c>
+      <c r="M20" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>45383</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10">
+        <v>55</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10">
+        <v>8850</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1400</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1250</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1234</v>
+      </c>
+      <c r="I21" s="10">
+        <v>6000</v>
+      </c>
+      <c r="J21" s="10">
+        <v>6000</v>
+      </c>
+      <c r="K21" s="10">
+        <v>6000</v>
+      </c>
+      <c r="L21" s="10">
+        <v>6000</v>
+      </c>
+      <c r="M21" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>45383</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10">
+        <v>92</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="10">
+        <v>6800</v>
+      </c>
+      <c r="F22" s="10">
+        <v>985</v>
+      </c>
+      <c r="G22" s="10">
+        <v>900</v>
+      </c>
+      <c r="H22" s="10">
+        <v>905</v>
+      </c>
+      <c r="I22" s="10">
+        <v>7000</v>
+      </c>
+      <c r="J22" s="10">
+        <v>7000</v>
+      </c>
+      <c r="K22" s="10">
+        <v>7000</v>
+      </c>
+      <c r="L22" s="10">
+        <v>7000</v>
+      </c>
+      <c r="M22" s="10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>45413</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="12">
+        <v>95</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2900</v>
+      </c>
+      <c r="F23" s="12">
+        <v>750</v>
+      </c>
+      <c r="G23" s="12">
+        <v>680</v>
+      </c>
+      <c r="H23" s="12">
+        <v>675</v>
+      </c>
+      <c r="I23" s="12">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="12">
+        <v>2500</v>
+      </c>
+      <c r="K23" s="12">
+        <v>2300</v>
+      </c>
+      <c r="L23" s="12">
+        <v>2225</v>
+      </c>
+      <c r="M23" s="12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>45413</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12">
+        <v>35</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12">
+        <v>12430</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1570</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1380</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1420</v>
+      </c>
+      <c r="I24" s="12">
+        <v>3000</v>
+      </c>
+      <c r="J24" s="12">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="12">
+        <v>3000</v>
+      </c>
+      <c r="L24" s="12">
+        <v>3000</v>
+      </c>
+      <c r="M24" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>45413</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="12">
+        <v>25</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="12">
+        <v>8500</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1205</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1100</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1050</v>
+      </c>
+      <c r="I25" s="12">
+        <v>4000</v>
+      </c>
+      <c r="J25" s="12">
+        <v>4000</v>
+      </c>
+      <c r="K25" s="12">
+        <v>4000</v>
+      </c>
+      <c r="L25" s="12">
+        <v>4000</v>
+      </c>
+      <c r="M25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>45413</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="12">
+        <v>55</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2850</v>
+      </c>
+      <c r="F26" s="12">
+        <v>280</v>
+      </c>
+      <c r="G26" s="12">
+        <v>250</v>
+      </c>
+      <c r="H26" s="12">
+        <v>245</v>
+      </c>
+      <c r="I26" s="12">
+        <v>5000</v>
+      </c>
+      <c r="J26" s="12">
+        <v>5000</v>
+      </c>
+      <c r="K26" s="12">
+        <v>5000</v>
+      </c>
+      <c r="L26" s="12">
+        <v>5000</v>
+      </c>
+      <c r="M26" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>45413</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="12">
+        <v>55</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="12">
+        <v>8850</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1400</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1250</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1234</v>
+      </c>
+      <c r="I27" s="12">
+        <v>6000</v>
+      </c>
+      <c r="J27" s="12">
+        <v>6000</v>
+      </c>
+      <c r="K27" s="12">
+        <v>6000</v>
+      </c>
+      <c r="L27" s="12">
+        <v>6000</v>
+      </c>
+      <c r="M27" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>45413</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="12">
+        <v>92</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="12">
+        <v>6800</v>
+      </c>
+      <c r="F28" s="12">
+        <v>985</v>
+      </c>
+      <c r="G28" s="12">
+        <v>900</v>
+      </c>
+      <c r="H28" s="12">
+        <v>905</v>
+      </c>
+      <c r="I28" s="12">
+        <v>7000</v>
+      </c>
+      <c r="J28" s="12">
+        <v>7000</v>
+      </c>
+      <c r="K28" s="12">
+        <v>7000</v>
+      </c>
+      <c r="L28" s="12">
+        <v>7000</v>
+      </c>
+      <c r="M28" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>45444</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="14">
+        <v>98</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="14">
+        <v>2900</v>
+      </c>
+      <c r="F29" s="14">
+        <v>750</v>
+      </c>
+      <c r="G29" s="14">
+        <v>680</v>
+      </c>
+      <c r="H29" s="14">
+        <v>675</v>
+      </c>
+      <c r="I29" s="14">
+        <v>1500</v>
+      </c>
+      <c r="J29" s="14">
+        <v>2500</v>
+      </c>
+      <c r="K29" s="14">
+        <v>2400</v>
+      </c>
+      <c r="L29" s="14">
+        <v>2225</v>
+      </c>
+      <c r="M29" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>45444</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="14">
+        <v>35</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="14">
+        <v>12430</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1570</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1380</v>
+      </c>
+      <c r="H30" s="14">
+        <v>1420</v>
+      </c>
+      <c r="I30" s="14">
+        <v>3000</v>
+      </c>
+      <c r="J30" s="14">
+        <v>3000</v>
+      </c>
+      <c r="K30" s="14">
+        <v>3000</v>
+      </c>
+      <c r="L30" s="14">
+        <v>3000</v>
+      </c>
+      <c r="M30" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>45444</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="14">
+        <v>25</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="14">
+        <v>8500</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1205</v>
+      </c>
+      <c r="G31" s="14">
+        <v>1100</v>
+      </c>
+      <c r="H31" s="14">
+        <v>1050</v>
+      </c>
+      <c r="I31" s="14">
+        <v>4000</v>
+      </c>
+      <c r="J31" s="14">
+        <v>4000</v>
+      </c>
+      <c r="K31" s="14">
+        <v>4000</v>
+      </c>
+      <c r="L31" s="14">
+        <v>4000</v>
+      </c>
+      <c r="M31" s="14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>45444</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="14">
+        <v>55</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="14">
+        <v>2850</v>
+      </c>
+      <c r="F32" s="14">
+        <v>280</v>
+      </c>
+      <c r="G32" s="14">
+        <v>250</v>
+      </c>
+      <c r="H32" s="14">
+        <v>245</v>
+      </c>
+      <c r="I32" s="14">
+        <v>5000</v>
+      </c>
+      <c r="J32" s="14">
+        <v>5000</v>
+      </c>
+      <c r="K32" s="14">
+        <v>5000</v>
+      </c>
+      <c r="L32" s="14">
+        <v>5000</v>
+      </c>
+      <c r="M32" s="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>45444</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="14">
+        <v>55</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="14">
+        <v>8850</v>
+      </c>
+      <c r="F33" s="14">
+        <v>1400</v>
+      </c>
+      <c r="G33" s="14">
+        <v>1250</v>
+      </c>
+      <c r="H33" s="14">
+        <v>1234</v>
+      </c>
+      <c r="I33" s="14">
+        <v>6000</v>
+      </c>
+      <c r="J33" s="14">
+        <v>6000</v>
+      </c>
+      <c r="K33" s="14">
+        <v>6000</v>
+      </c>
+      <c r="L33" s="14">
+        <v>6000</v>
+      </c>
+      <c r="M33" s="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>45444</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="14">
+        <v>92</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="14">
+        <v>6800</v>
+      </c>
+      <c r="F34" s="14">
+        <v>985</v>
+      </c>
+      <c r="G34" s="14">
+        <v>900</v>
+      </c>
+      <c r="H34" s="14">
+        <v>905</v>
+      </c>
+      <c r="I34" s="14">
+        <v>7000</v>
+      </c>
+      <c r="J34" s="14">
+        <v>7000</v>
+      </c>
+      <c r="K34" s="14">
+        <v>7000</v>
+      </c>
+      <c r="L34" s="14">
+        <v>7000</v>
+      </c>
+      <c r="M34" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="16">
+        <v>99</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="16">
+        <v>2900</v>
+      </c>
+      <c r="F35" s="16">
+        <v>750</v>
+      </c>
+      <c r="G35" s="16">
+        <v>680</v>
+      </c>
+      <c r="H35" s="16">
+        <v>675</v>
+      </c>
+      <c r="I35" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="16">
+        <v>2450</v>
+      </c>
+      <c r="K35" s="16">
+        <v>2450</v>
+      </c>
+      <c r="L35" s="16">
+        <v>2225</v>
+      </c>
+      <c r="M35" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="16">
+        <v>35</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="16">
+        <v>12430</v>
+      </c>
+      <c r="F36" s="16">
+        <v>1570</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1380</v>
+      </c>
+      <c r="H36" s="16">
+        <v>1420</v>
+      </c>
+      <c r="I36" s="16">
+        <v>3000</v>
+      </c>
+      <c r="J36" s="16">
+        <v>3000</v>
+      </c>
+      <c r="K36" s="16">
+        <v>3000</v>
+      </c>
+      <c r="L36" s="16">
+        <v>3000</v>
+      </c>
+      <c r="M36" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="16">
+        <v>25</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="16">
+        <v>8500</v>
+      </c>
+      <c r="F37" s="16">
+        <v>1205</v>
+      </c>
+      <c r="G37" s="16">
+        <v>1100</v>
+      </c>
+      <c r="H37" s="16">
+        <v>1050</v>
+      </c>
+      <c r="I37" s="16">
+        <v>4000</v>
+      </c>
+      <c r="J37" s="16">
+        <v>4000</v>
+      </c>
+      <c r="K37" s="16">
+        <v>4000</v>
+      </c>
+      <c r="L37" s="16">
+        <v>4000</v>
+      </c>
+      <c r="M37" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="16">
+        <v>55</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="16">
+        <v>2850</v>
+      </c>
+      <c r="F38" s="16">
+        <v>280</v>
+      </c>
+      <c r="G38" s="16">
+        <v>250</v>
+      </c>
+      <c r="H38" s="16">
+        <v>245</v>
+      </c>
+      <c r="I38" s="16">
+        <v>5000</v>
+      </c>
+      <c r="J38" s="16">
+        <v>5000</v>
+      </c>
+      <c r="K38" s="16">
+        <v>5000</v>
+      </c>
+      <c r="L38" s="16">
+        <v>5000</v>
+      </c>
+      <c r="M38" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="16">
+        <v>55</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="16">
+        <v>8850</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1400</v>
+      </c>
+      <c r="G39" s="16">
+        <v>1250</v>
+      </c>
+      <c r="H39" s="16">
+        <v>1234</v>
+      </c>
+      <c r="I39" s="16">
+        <v>6000</v>
+      </c>
+      <c r="J39" s="16">
+        <v>6000</v>
+      </c>
+      <c r="K39" s="16">
+        <v>6000</v>
+      </c>
+      <c r="L39" s="16">
+        <v>6000</v>
+      </c>
+      <c r="M39" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="16">
+        <v>92</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="16">
+        <v>6800</v>
+      </c>
+      <c r="F40" s="16">
+        <v>985</v>
+      </c>
+      <c r="G40" s="16">
+        <v>900</v>
+      </c>
+      <c r="H40" s="16">
+        <v>905</v>
+      </c>
+      <c r="I40" s="16">
+        <v>7000</v>
+      </c>
+      <c r="J40" s="16">
+        <v>7000</v>
+      </c>
+      <c r="K40" s="16">
+        <v>7000</v>
+      </c>
+      <c r="L40" s="16">
+        <v>7000</v>
+      </c>
+      <c r="M40" s="16">
         <v>24</v>
       </c>
     </row>
@@ -761,4 +2206,309 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF635C46-DD61-4F93-B456-45ECAEA30E4C}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="16">
+        <v>99</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="16">
+        <v>2900</v>
+      </c>
+      <c r="F2" s="16">
+        <v>750</v>
+      </c>
+      <c r="G2" s="16">
+        <v>680</v>
+      </c>
+      <c r="H2" s="16">
+        <v>675</v>
+      </c>
+      <c r="I2" s="16">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="16">
+        <v>2450</v>
+      </c>
+      <c r="K2" s="16">
+        <v>2450</v>
+      </c>
+      <c r="L2" s="16">
+        <v>2225</v>
+      </c>
+      <c r="M2" s="16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="16">
+        <v>35</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16">
+        <v>12430</v>
+      </c>
+      <c r="F3" s="16">
+        <v>1570</v>
+      </c>
+      <c r="G3" s="16">
+        <v>1380</v>
+      </c>
+      <c r="H3" s="16">
+        <v>1420</v>
+      </c>
+      <c r="I3" s="16">
+        <v>3000</v>
+      </c>
+      <c r="J3" s="16">
+        <v>3000</v>
+      </c>
+      <c r="K3" s="16">
+        <v>3000</v>
+      </c>
+      <c r="L3" s="16">
+        <v>3000</v>
+      </c>
+      <c r="M3" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="16">
+        <v>25</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="16">
+        <v>8500</v>
+      </c>
+      <c r="F4" s="16">
+        <v>1205</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1100</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1050</v>
+      </c>
+      <c r="I4" s="16">
+        <v>4000</v>
+      </c>
+      <c r="J4" s="16">
+        <v>4000</v>
+      </c>
+      <c r="K4" s="16">
+        <v>4000</v>
+      </c>
+      <c r="L4" s="16">
+        <v>4000</v>
+      </c>
+      <c r="M4" s="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="16">
+        <v>55</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2850</v>
+      </c>
+      <c r="F5" s="16">
+        <v>280</v>
+      </c>
+      <c r="G5" s="16">
+        <v>250</v>
+      </c>
+      <c r="H5" s="16">
+        <v>245</v>
+      </c>
+      <c r="I5" s="16">
+        <v>5000</v>
+      </c>
+      <c r="J5" s="16">
+        <v>5000</v>
+      </c>
+      <c r="K5" s="16">
+        <v>5000</v>
+      </c>
+      <c r="L5" s="16">
+        <v>5000</v>
+      </c>
+      <c r="M5" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="16">
+        <v>55</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="16">
+        <v>8850</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1400</v>
+      </c>
+      <c r="G6" s="16">
+        <v>1250</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1234</v>
+      </c>
+      <c r="I6" s="16">
+        <v>6000</v>
+      </c>
+      <c r="J6" s="16">
+        <v>6000</v>
+      </c>
+      <c r="K6" s="16">
+        <v>6000</v>
+      </c>
+      <c r="L6" s="16">
+        <v>6000</v>
+      </c>
+      <c r="M6" s="16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>45474</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16">
+        <v>92</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="16">
+        <v>6800</v>
+      </c>
+      <c r="F7" s="16">
+        <v>985</v>
+      </c>
+      <c r="G7" s="16">
+        <v>900</v>
+      </c>
+      <c r="H7" s="16">
+        <v>905</v>
+      </c>
+      <c r="I7" s="16">
+        <v>7000</v>
+      </c>
+      <c r="J7" s="16">
+        <v>7000</v>
+      </c>
+      <c r="K7" s="16">
+        <v>7000</v>
+      </c>
+      <c r="L7" s="16">
+        <v>7000</v>
+      </c>
+      <c r="M7" s="16">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dash_app/data/data_for_main_table.xlsx
+++ b/dash_app/data/data_for_main_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citco\Documents\Projects\Platt&amp;Reilly\Projects\dashboard\dash_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1073218D-55CB-4FC5-8730-EA37C1B90859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6ABE197-23B7-46FB-84F8-478921827F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D4D2C26-5603-43D3-8ABB-FFEB205B5079}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7D4D2C26-5603-43D3-8ABB-FFEB205B5079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2196,7 @@
         <v>7000</v>
       </c>
       <c r="L40" s="16">
-        <v>7000</v>
+        <v>5000</v>
       </c>
       <c r="M40" s="16">
         <v>24</v>
